--- a/Test_Cases_Time.xlsx
+++ b/Test_Cases_Time.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masterproef\GPGPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EFE7CA-E691-422D-8EEF-C949FD23B46D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2C777A-4888-4335-B8F2-FE64F97064A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{67B730A1-26FC-49CA-AC2A-849CD51EEB71}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>File</t>
   </si>
@@ -133,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +149,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,19 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -238,6 +232,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -644,7 +656,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,57 +685,57 @@
       <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="10" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="7" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-    </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -743,31 +755,31 @@
       <c r="E3" s="4">
         <v>26</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="8">
         <v>172</v>
       </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
         <v>165</v>
       </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
         <v>166</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="8">
         <v>1</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="8">
         <v>0</v>
       </c>
     </row>
@@ -787,31 +799,31 @@
       <c r="E4" s="4">
         <v>26</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="8">
         <v>161</v>
       </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
         <v>163</v>
       </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
         <v>158</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="8">
         <v>1</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="8">
         <v>0</v>
       </c>
     </row>
@@ -831,31 +843,31 @@
       <c r="E5" s="4">
         <v>85</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="8">
         <v>162</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="8">
         <v>2</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>7</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="8">
         <v>161</v>
       </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
         <v>6</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="8">
         <v>164</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="8">
         <v>1</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="8">
         <v>3</v>
       </c>
     </row>
@@ -875,31 +887,31 @@
       <c r="E6" s="4">
         <v>4854</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="8">
         <v>171</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="8">
         <v>50</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <v>743</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="8">
         <v>156</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="8">
         <v>1</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <v>281</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="8">
         <v>157</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="8">
         <v>1</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="8">
         <v>45</v>
       </c>
     </row>
@@ -919,31 +931,31 @@
       <c r="E7" s="4">
         <v>297827</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="8">
         <v>182</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="8">
         <v>8</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="7">
         <v>15077</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="8">
         <v>166</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="8">
         <v>7</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="8">
         <v>2195</v>
       </c>
     </row>
@@ -951,85 +963,85 @@
       <c r="B8" s="4"/>
       <c r="C8" s="6"/>
       <c r="E8" s="4"/>
-      <c r="H8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="H8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="6"/>
       <c r="E9" s="4"/>
-      <c r="H9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="H9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="6"/>
       <c r="E10" s="4"/>
-      <c r="H10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="H10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="6"/>
       <c r="E11" s="4"/>
-      <c r="H11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="H11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="6"/>
       <c r="E12" s="4"/>
-      <c r="H12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="H12" s="7"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="6"/>
       <c r="E13" s="4"/>
-      <c r="H13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="H13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="6"/>
       <c r="E14" s="4"/>
-      <c r="H14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="H14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="6"/>
       <c r="E15" s="4"/>
-      <c r="H15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="H15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="6"/>
       <c r="E16" s="4"/>
-      <c r="H16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="H16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="6"/>
       <c r="E17" s="4"/>
-      <c r="H17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="H17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="6"/>
       <c r="E18" s="4"/>
-      <c r="H18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="H18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="6"/>
       <c r="E19" s="4"/>
-      <c r="H19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="H19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
